--- a/files/28_11_2022/route_number_2.xlsx
+++ b/files/28_11_2022/route_number_2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,1510 +435,1191 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>676353</v>
+        <v>627720</v>
       </c>
       <c r="B2">
-        <v>606132</v>
+        <v>635511</v>
       </c>
       <c r="C2">
-        <v>37.55261592</v>
+        <v>37.91069583</v>
       </c>
       <c r="D2">
-        <v>55.86849397</v>
+        <v>55.6626243</v>
       </c>
       <c r="E2">
-        <v>37.55516925</v>
+        <v>37.89532765</v>
       </c>
       <c r="F2">
-        <v>55.86332161</v>
+        <v>55.67699392</v>
       </c>
       <c r="G2">
-        <v>11.65</v>
+        <v>15.8</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>1.65</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>606132</v>
+        <v>635511</v>
       </c>
       <c r="B3">
-        <v>606140</v>
+        <v>640088</v>
       </c>
       <c r="C3">
-        <v>37.55516925</v>
+        <v>37.89532765</v>
       </c>
       <c r="D3">
-        <v>55.86332161</v>
+        <v>55.67699392</v>
       </c>
       <c r="E3">
-        <v>37.55360572</v>
+        <v>37.90901842</v>
       </c>
       <c r="F3">
-        <v>55.86492018</v>
+        <v>55.6884029</v>
       </c>
       <c r="G3">
-        <v>12.52</v>
+        <v>14.66</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>2.52</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>606140</v>
+        <v>640088</v>
       </c>
       <c r="B4">
-        <v>607730</v>
+        <v>619604</v>
       </c>
       <c r="C4">
-        <v>37.55360572</v>
+        <v>37.90901842</v>
       </c>
       <c r="D4">
-        <v>55.86492018</v>
+        <v>55.6884029</v>
       </c>
       <c r="E4">
-        <v>37.54610776</v>
+        <v>37.92049748</v>
       </c>
       <c r="F4">
-        <v>55.86370263</v>
+        <v>55.69035184</v>
       </c>
       <c r="G4">
-        <v>12.96</v>
+        <v>12.53</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>2.960000000000001</v>
+        <v>2.529999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>607730</v>
+        <v>619604</v>
       </c>
       <c r="B5">
-        <v>608555</v>
+        <v>406139</v>
       </c>
       <c r="C5">
-        <v>37.54610776</v>
+        <v>37.92049748</v>
       </c>
       <c r="D5">
-        <v>55.86370263</v>
+        <v>55.69035184</v>
       </c>
       <c r="E5">
-        <v>37.53053812</v>
+        <v>37.93252837</v>
       </c>
       <c r="F5">
-        <v>55.87098161</v>
+        <v>55.70164257</v>
       </c>
       <c r="G5">
-        <v>13.45</v>
+        <v>14.24</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>3.449999999999999</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>608555</v>
+        <v>406139</v>
       </c>
       <c r="B6">
-        <v>607725</v>
+        <v>606520</v>
       </c>
       <c r="C6">
-        <v>37.53053812</v>
+        <v>37.93252837</v>
       </c>
       <c r="D6">
-        <v>55.87098161</v>
+        <v>55.70164257</v>
       </c>
       <c r="E6">
-        <v>37.51959776</v>
+        <v>37.95433901</v>
       </c>
       <c r="F6">
-        <v>55.88102414</v>
+        <v>55.7082427</v>
       </c>
       <c r="G6">
-        <v>11.59</v>
+        <v>14.33</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.59</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>607725</v>
+        <v>606520</v>
       </c>
       <c r="B7">
-        <v>686170</v>
+        <v>606518</v>
       </c>
       <c r="C7">
-        <v>37.51959776</v>
+        <v>37.95433901</v>
       </c>
       <c r="D7">
-        <v>55.88102414</v>
+        <v>55.7082427</v>
       </c>
       <c r="E7">
-        <v>37.53886821</v>
+        <v>37.97442844</v>
       </c>
       <c r="F7">
-        <v>55.88817172</v>
+        <v>55.69556362</v>
       </c>
       <c r="G7">
-        <v>12.74</v>
+        <v>16.93</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>2.74</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>686170</v>
+        <v>606518</v>
       </c>
       <c r="B8">
-        <v>698643</v>
+        <v>691498</v>
       </c>
       <c r="C8">
-        <v>37.53886821</v>
+        <v>37.97442844</v>
       </c>
       <c r="D8">
-        <v>55.88817172</v>
+        <v>55.69556362</v>
       </c>
       <c r="E8">
-        <v>37.55555904</v>
+        <v>37.89359769</v>
       </c>
       <c r="F8">
-        <v>55.89146084</v>
+        <v>55.65977315</v>
       </c>
       <c r="G8">
-        <v>13.74</v>
+        <v>23.04</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>3.74</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>698643</v>
+        <v>691498</v>
       </c>
       <c r="B9">
-        <v>619645</v>
+        <v>616480</v>
       </c>
       <c r="C9">
-        <v>37.55555904</v>
+        <v>37.89359769</v>
       </c>
       <c r="D9">
-        <v>55.89146084</v>
+        <v>55.65977315</v>
       </c>
       <c r="E9">
-        <v>37.54110621</v>
+        <v>37.84272513</v>
       </c>
       <c r="F9">
-        <v>55.87602258</v>
+        <v>55.63948834</v>
       </c>
       <c r="G9">
-        <v>15.3</v>
+        <v>19.04</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>5.300000000000001</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>619645</v>
+        <v>616480</v>
       </c>
       <c r="B10">
-        <v>605393</v>
+        <v>609338</v>
       </c>
       <c r="C10">
-        <v>37.54110621</v>
+        <v>37.84272513</v>
       </c>
       <c r="D10">
-        <v>55.87602258</v>
+        <v>55.63948834</v>
       </c>
       <c r="E10">
-        <v>37.52298761</v>
+        <v>37.76117907</v>
       </c>
       <c r="F10">
-        <v>55.86019016</v>
+        <v>55.61893294</v>
       </c>
       <c r="G10">
-        <v>16.01</v>
+        <v>21.12</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>6.009999999999998</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>605393</v>
+        <v>609338</v>
       </c>
       <c r="B11">
-        <v>636468</v>
+        <v>607047</v>
       </c>
       <c r="C11">
-        <v>37.52298761</v>
+        <v>37.76117907</v>
       </c>
       <c r="D11">
-        <v>55.86019016</v>
+        <v>55.61893294</v>
       </c>
       <c r="E11">
-        <v>37.44392623</v>
+        <v>37.74620944</v>
       </c>
       <c r="F11">
-        <v>55.88610015</v>
+        <v>55.59581279</v>
       </c>
       <c r="G11">
-        <v>14.91</v>
+        <v>19.93</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>4.91</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>636468</v>
+        <v>607047</v>
       </c>
       <c r="B12">
-        <v>635217</v>
+        <v>607045</v>
       </c>
       <c r="C12">
-        <v>37.44392623</v>
+        <v>37.74620944</v>
       </c>
       <c r="D12">
-        <v>55.88610015</v>
+        <v>55.59581279</v>
       </c>
       <c r="E12">
-        <v>37.45171762</v>
+        <v>37.71408911</v>
       </c>
       <c r="F12">
-        <v>55.88548262</v>
+        <v>55.54772427</v>
       </c>
       <c r="G12">
-        <v>12.03</v>
+        <v>22.84</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>2.029999999999999</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>635217</v>
+        <v>607045</v>
       </c>
       <c r="B13">
-        <v>635593</v>
+        <v>683733</v>
       </c>
       <c r="C13">
-        <v>37.45171762</v>
+        <v>37.71408911</v>
       </c>
       <c r="D13">
-        <v>55.88548262</v>
+        <v>55.54772427</v>
       </c>
       <c r="E13">
-        <v>37.45539652</v>
+        <v>37.72008091</v>
       </c>
       <c r="F13">
-        <v>55.88642424</v>
+        <v>55.54343251</v>
       </c>
       <c r="G13">
-        <v>11.15</v>
+        <v>13.43</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>1.15</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>635593</v>
+        <v>683733</v>
       </c>
       <c r="B14">
-        <v>607754</v>
+        <v>608082</v>
       </c>
       <c r="C14">
-        <v>37.45539652</v>
+        <v>37.72008091</v>
       </c>
       <c r="D14">
-        <v>55.88642424</v>
+        <v>55.54343251</v>
       </c>
       <c r="E14">
-        <v>37.45128841</v>
+        <v>37.71903811</v>
       </c>
       <c r="F14">
-        <v>55.88997176</v>
+        <v>55.55167033</v>
       </c>
       <c r="G14">
-        <v>12.32</v>
+        <v>12.25</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>607754</v>
+        <v>608082</v>
       </c>
       <c r="B15">
-        <v>636411</v>
+        <v>689138</v>
       </c>
       <c r="C15">
-        <v>37.45128841</v>
+        <v>37.71903811</v>
       </c>
       <c r="D15">
-        <v>55.88997176</v>
+        <v>55.55167033</v>
       </c>
       <c r="E15">
-        <v>37.45014971</v>
+        <v>37.66126619</v>
       </c>
       <c r="F15">
-        <v>55.89350175</v>
+        <v>55.53761167</v>
       </c>
       <c r="G15">
-        <v>14.17</v>
+        <v>19.93</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>4.17</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>636411</v>
+        <v>689138</v>
       </c>
       <c r="B16">
-        <v>669262</v>
+        <v>627771</v>
       </c>
       <c r="C16">
-        <v>37.45014971</v>
+        <v>37.66126619</v>
       </c>
       <c r="D16">
-        <v>55.89350175</v>
+        <v>55.53761167</v>
       </c>
       <c r="E16">
-        <v>37.44543721</v>
+        <v>37.62093841</v>
       </c>
       <c r="F16">
-        <v>55.89596311</v>
+        <v>55.53422182</v>
       </c>
       <c r="G16">
-        <v>11.45</v>
+        <v>16.29</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>1.449999999999999</v>
+        <v>6.289999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>669262</v>
+        <v>627771</v>
       </c>
       <c r="B17">
-        <v>628617</v>
+        <v>636404</v>
       </c>
       <c r="C17">
-        <v>37.44543721</v>
+        <v>37.62093841</v>
       </c>
       <c r="D17">
-        <v>55.89596311</v>
+        <v>55.53422182</v>
       </c>
       <c r="E17">
-        <v>37.45048694</v>
+        <v>37.6146361</v>
       </c>
       <c r="F17">
-        <v>55.8960507</v>
+        <v>55.53170352</v>
       </c>
       <c r="G17">
-        <v>11.81</v>
+        <v>12.73</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>1.81</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>628617</v>
+        <v>636404</v>
       </c>
       <c r="B18">
-        <v>660498</v>
+        <v>616468</v>
       </c>
       <c r="C18">
-        <v>37.45048694</v>
+        <v>37.6146361</v>
       </c>
       <c r="D18">
-        <v>55.8960507</v>
+        <v>55.53170352</v>
       </c>
       <c r="E18">
-        <v>37.44028043</v>
+        <v>37.58813923</v>
       </c>
       <c r="F18">
-        <v>55.88472069</v>
+        <v>55.54777245</v>
       </c>
       <c r="G18">
-        <v>14.24</v>
+        <v>15.08</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>4.24</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>660498</v>
+        <v>616468</v>
       </c>
       <c r="B19">
-        <v>607773</v>
+        <v>637537</v>
       </c>
       <c r="C19">
-        <v>37.44028043</v>
+        <v>37.58813923</v>
       </c>
       <c r="D19">
-        <v>55.88472069</v>
+        <v>55.54777245</v>
       </c>
       <c r="E19">
-        <v>37.42581639</v>
+        <v>37.58575671</v>
       </c>
       <c r="F19">
-        <v>55.88409427</v>
+        <v>55.56245302</v>
       </c>
       <c r="G19">
-        <v>13.15</v>
+        <v>13.93</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>3.15</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>607773</v>
+        <v>637537</v>
       </c>
       <c r="B20">
-        <v>687668</v>
+        <v>637523</v>
       </c>
       <c r="C20">
-        <v>37.42581639</v>
+        <v>37.58575671</v>
       </c>
       <c r="D20">
-        <v>55.88409427</v>
+        <v>55.56245302</v>
       </c>
       <c r="E20">
-        <v>37.41659723</v>
+        <v>37.55710944</v>
       </c>
       <c r="F20">
-        <v>55.88899071</v>
+        <v>55.54666002</v>
       </c>
       <c r="G20">
-        <v>13.71</v>
+        <v>15.78</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>3.710000000000001</v>
+        <v>5.780000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>687668</v>
+        <v>637523</v>
       </c>
       <c r="B21">
-        <v>692541</v>
+        <v>406504</v>
       </c>
       <c r="C21">
-        <v>37.41659723</v>
+        <v>37.55710944</v>
       </c>
       <c r="D21">
-        <v>55.88899071</v>
+        <v>55.54666002</v>
       </c>
       <c r="E21">
-        <v>37.40609922</v>
+        <v>37.53927755</v>
       </c>
       <c r="F21">
-        <v>55.89953252</v>
+        <v>55.54571436</v>
       </c>
       <c r="G21">
-        <v>13.29</v>
+        <v>13.54</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>3.289999999999999</v>
+        <v>3.539999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>692541</v>
+        <v>406504</v>
       </c>
       <c r="B22">
-        <v>607761</v>
+        <v>688383</v>
       </c>
       <c r="C22">
-        <v>37.40609922</v>
+        <v>37.53927755</v>
       </c>
       <c r="D22">
-        <v>55.89953252</v>
+        <v>55.54571436</v>
       </c>
       <c r="E22">
-        <v>37.40744815</v>
+        <v>37.52102991</v>
       </c>
       <c r="F22">
-        <v>55.90122307</v>
+        <v>55.533924</v>
       </c>
       <c r="G22">
-        <v>11.81</v>
+        <v>13.89</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>1.81</v>
+        <v>3.890000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>607761</v>
+        <v>688383</v>
       </c>
       <c r="B23">
-        <v>635272</v>
+        <v>699572</v>
       </c>
       <c r="C23">
-        <v>37.40744815</v>
+        <v>37.52102991</v>
       </c>
       <c r="D23">
-        <v>55.90122307</v>
+        <v>55.533924</v>
       </c>
       <c r="E23">
-        <v>37.40393568</v>
+        <v>37.56154602</v>
       </c>
       <c r="F23">
-        <v>55.90503336</v>
+        <v>55.5036913</v>
       </c>
       <c r="G23">
-        <v>11.85</v>
+        <v>19.64</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>1.85</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>635272</v>
+        <v>699572</v>
       </c>
       <c r="B24">
-        <v>686161</v>
+        <v>636462</v>
       </c>
       <c r="C24">
-        <v>37.40393568</v>
+        <v>37.56154602</v>
       </c>
       <c r="D24">
-        <v>55.90503336</v>
+        <v>55.5036913</v>
       </c>
       <c r="E24">
-        <v>37.42883835</v>
+        <v>37.581907</v>
       </c>
       <c r="F24">
-        <v>55.88937174</v>
+        <v>55.50582419</v>
       </c>
       <c r="G24">
-        <v>13.63</v>
+        <v>14.41</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>3.629999999999999</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>686161</v>
+        <v>636462</v>
       </c>
       <c r="B25">
-        <v>682271</v>
+        <v>634878</v>
       </c>
       <c r="C25">
-        <v>37.42883835</v>
+        <v>37.581907</v>
       </c>
       <c r="D25">
-        <v>55.88937174</v>
+        <v>55.50582419</v>
       </c>
       <c r="E25">
-        <v>37.41475778</v>
+        <v>37.55146845</v>
       </c>
       <c r="F25">
-        <v>55.90143329</v>
+        <v>55.44994428</v>
       </c>
       <c r="G25">
-        <v>14.02</v>
+        <v>21.89</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>4.02</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>682271</v>
+        <v>634878</v>
       </c>
       <c r="B26">
-        <v>668402</v>
+        <v>682294</v>
       </c>
       <c r="C26">
-        <v>37.41475778</v>
+        <v>37.55146845</v>
       </c>
       <c r="D26">
-        <v>55.90143329</v>
+        <v>55.44994428</v>
       </c>
       <c r="E26">
-        <v>37.40324807</v>
+        <v>37.53939815</v>
       </c>
       <c r="F26">
-        <v>55.88625344</v>
+        <v>55.43404178</v>
       </c>
       <c r="G26">
-        <v>15.69</v>
+        <v>14.49</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>5.690000000000001</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>668402</v>
+        <v>682294</v>
       </c>
       <c r="B27">
-        <v>638981</v>
+        <v>635726</v>
       </c>
       <c r="C27">
-        <v>37.40324807</v>
+        <v>37.53939815</v>
       </c>
       <c r="D27">
-        <v>55.88625344</v>
+        <v>55.43404178</v>
       </c>
       <c r="E27">
-        <v>37.3622064</v>
+        <v>37.5439267</v>
       </c>
       <c r="F27">
-        <v>55.86153033</v>
+        <v>55.42775261</v>
       </c>
       <c r="G27">
-        <v>17.06</v>
+        <v>12.4</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>7.059999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>638981</v>
+        <v>635726</v>
       </c>
       <c r="B28">
-        <v>619610</v>
+        <v>676981</v>
       </c>
       <c r="C28">
-        <v>37.3622064</v>
+        <v>37.5439267</v>
       </c>
       <c r="D28">
-        <v>55.86153033</v>
+        <v>55.42775261</v>
       </c>
       <c r="E28">
-        <v>37.37192566</v>
+        <v>37.54758808</v>
       </c>
       <c r="F28">
-        <v>55.86473067</v>
+        <v>55.42204155</v>
       </c>
       <c r="G28">
-        <v>10.02</v>
+        <v>12.66</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>0.01999999999999957</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>619610</v>
+        <v>676981</v>
       </c>
       <c r="B29">
-        <v>607716</v>
+        <v>634973</v>
       </c>
       <c r="C29">
-        <v>37.37192566</v>
+        <v>37.54758808</v>
       </c>
       <c r="D29">
-        <v>55.86473067</v>
+        <v>55.42204155</v>
       </c>
       <c r="E29">
-        <v>37.36724738</v>
+        <v>37.56405994</v>
       </c>
       <c r="F29">
-        <v>55.86443404</v>
+        <v>55.41088221</v>
       </c>
       <c r="G29">
-        <v>10.01</v>
+        <v>15.28</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>0.009999999999999787</v>
+        <v>5.280000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>607716</v>
+        <v>634973</v>
       </c>
       <c r="B30">
-        <v>644007</v>
+        <v>622314</v>
       </c>
       <c r="C30">
-        <v>37.36724738</v>
+        <v>37.56405994</v>
       </c>
       <c r="D30">
-        <v>55.86443404</v>
+        <v>55.41088221</v>
       </c>
       <c r="E30">
-        <v>37.4108599</v>
+        <v>37.61956064</v>
       </c>
       <c r="F30">
-        <v>55.85491268</v>
+        <v>55.4480981</v>
       </c>
       <c r="G30">
-        <v>15.99</v>
+        <v>19.71</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>5.99</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>644007</v>
+        <v>622314</v>
       </c>
       <c r="B31">
-        <v>680315</v>
+        <v>687690</v>
       </c>
       <c r="C31">
-        <v>37.4108599</v>
+        <v>37.61956064</v>
       </c>
       <c r="D31">
-        <v>55.85491268</v>
+        <v>55.4480981</v>
       </c>
       <c r="E31">
-        <v>37.4152264</v>
+        <v>37.69250621</v>
       </c>
       <c r="F31">
-        <v>55.85470246</v>
+        <v>55.43074391</v>
       </c>
       <c r="G31">
-        <v>12.75</v>
+        <v>21.43</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>2.75</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>680315</v>
+        <v>687690</v>
       </c>
       <c r="B32">
-        <v>634802</v>
+        <v>689143</v>
       </c>
       <c r="C32">
-        <v>37.4152264</v>
+        <v>37.69250621</v>
       </c>
       <c r="D32">
-        <v>55.85470246</v>
+        <v>55.43074391</v>
       </c>
       <c r="E32">
-        <v>37.42800621</v>
+        <v>37.72729812</v>
       </c>
       <c r="F32">
-        <v>55.84876366</v>
+        <v>55.44068133</v>
       </c>
       <c r="G32">
-        <v>11.96</v>
+        <v>13.3</v>
       </c>
       <c r="H32">
         <v>10</v>
       </c>
       <c r="I32">
-        <v>1.960000000000001</v>
+        <v>3.300000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>634802</v>
+        <v>689143</v>
       </c>
       <c r="B33">
-        <v>681975</v>
+        <v>606531</v>
       </c>
       <c r="C33">
-        <v>37.42800621</v>
+        <v>37.72729812</v>
       </c>
       <c r="D33">
-        <v>55.84876366</v>
+        <v>55.44068133</v>
       </c>
       <c r="E33">
-        <v>37.43776845</v>
+        <v>37.77204935</v>
       </c>
       <c r="F33">
-        <v>55.83832258</v>
+        <v>55.43771193</v>
       </c>
       <c r="G33">
-        <v>11.9</v>
+        <v>15.18</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
       <c r="I33">
-        <v>1.9</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>681975</v>
+        <v>606531</v>
       </c>
       <c r="B34">
-        <v>628881</v>
+        <v>687671</v>
       </c>
       <c r="C34">
-        <v>37.43776845</v>
+        <v>37.77204935</v>
       </c>
       <c r="D34">
-        <v>55.83832258</v>
+        <v>55.43771193</v>
       </c>
       <c r="E34">
-        <v>37.43398881</v>
+        <v>37.76888725</v>
       </c>
       <c r="F34">
-        <v>55.85969088</v>
+        <v>55.40069077</v>
       </c>
       <c r="G34">
-        <v>13.94</v>
+        <v>20.03</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="I34">
-        <v>3.94</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>628881</v>
+        <v>687671</v>
       </c>
       <c r="B35">
-        <v>682188</v>
+        <v>634873</v>
       </c>
       <c r="C35">
-        <v>37.43398881</v>
+        <v>37.76888725</v>
       </c>
       <c r="D35">
-        <v>55.85969088</v>
+        <v>55.40069077</v>
       </c>
       <c r="E35">
-        <v>37.45123586</v>
+        <v>37.80494926</v>
       </c>
       <c r="F35">
-        <v>55.87935111</v>
+        <v>55.39807174</v>
       </c>
       <c r="G35">
-        <v>17.53</v>
+        <v>15.55</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35">
-        <v>7.530000000000001</v>
+        <v>5.550000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>682188</v>
+        <v>634873</v>
       </c>
       <c r="B36">
-        <v>634810</v>
+        <v>688213</v>
       </c>
       <c r="C36">
-        <v>37.45123586</v>
+        <v>37.80494926</v>
       </c>
       <c r="D36">
-        <v>55.87935111</v>
+        <v>55.39807174</v>
       </c>
       <c r="E36">
-        <v>37.52192887</v>
+        <v>37.75318622</v>
       </c>
       <c r="F36">
-        <v>55.86284012</v>
+        <v>55.5052417</v>
       </c>
       <c r="G36">
-        <v>16.43</v>
+        <v>23.97</v>
       </c>
       <c r="H36">
         <v>10</v>
       </c>
       <c r="I36">
-        <v>6.43</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>634810</v>
+        <v>688213</v>
       </c>
       <c r="B37">
-        <v>676358</v>
+        <v>676383</v>
       </c>
       <c r="C37">
-        <v>37.52192887</v>
+        <v>37.75318622</v>
       </c>
       <c r="D37">
-        <v>55.86284012</v>
+        <v>55.5052417</v>
       </c>
       <c r="E37">
-        <v>37.48229631</v>
+        <v>37.7555994</v>
       </c>
       <c r="F37">
-        <v>55.89309006</v>
+        <v>55.51114108</v>
       </c>
       <c r="G37">
-        <v>16.52</v>
+        <v>13.38</v>
       </c>
       <c r="H37">
         <v>10</v>
       </c>
       <c r="I37">
-        <v>6.52</v>
+        <v>3.379999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>676358</v>
+        <v>676383</v>
       </c>
       <c r="B38">
-        <v>406148</v>
+        <v>676995</v>
       </c>
       <c r="C38">
-        <v>37.48229631</v>
+        <v>37.7555994</v>
       </c>
       <c r="D38">
-        <v>55.89309006</v>
+        <v>55.51114108</v>
       </c>
       <c r="E38">
-        <v>37.47774092</v>
+        <v>37.69127991</v>
       </c>
       <c r="F38">
-        <v>55.89267531</v>
+        <v>55.51300243</v>
       </c>
       <c r="G38">
-        <v>10.71</v>
+        <v>32.75</v>
       </c>
       <c r="H38">
         <v>10</v>
       </c>
       <c r="I38">
-        <v>0.7100000000000009</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>406148</v>
+        <v>676995</v>
       </c>
       <c r="B39">
-        <v>607769</v>
+        <v>605379</v>
       </c>
       <c r="C39">
-        <v>37.47774092</v>
+        <v>37.69127991</v>
       </c>
       <c r="D39">
-        <v>55.89267531</v>
+        <v>55.51300243</v>
       </c>
       <c r="E39">
-        <v>37.47388739</v>
+        <v>37.5965394</v>
       </c>
       <c r="F39">
-        <v>55.89296305</v>
+        <v>55.60248299</v>
       </c>
       <c r="G39">
-        <v>11.22</v>
+        <v>29.36</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39">
-        <v>1.220000000000001</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>607769</v>
+        <v>605379</v>
       </c>
       <c r="B40">
-        <v>698674</v>
+        <v>676996</v>
       </c>
       <c r="C40">
-        <v>37.47388739</v>
+        <v>37.5965394</v>
       </c>
       <c r="D40">
-        <v>55.89296305</v>
+        <v>55.60248299</v>
       </c>
       <c r="E40">
-        <v>37.49510762</v>
+        <v>37.59051738</v>
       </c>
       <c r="F40">
-        <v>55.91650073</v>
+        <v>55.61302042</v>
       </c>
       <c r="G40">
-        <v>16.55</v>
+        <v>14.99</v>
       </c>
       <c r="H40">
         <v>10</v>
       </c>
       <c r="I40">
-        <v>6.550000000000001</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>698674</v>
+        <v>676996</v>
       </c>
       <c r="B41">
-        <v>680612</v>
+        <v>605354</v>
       </c>
       <c r="C41">
-        <v>37.49510762</v>
+        <v>37.59051738</v>
       </c>
       <c r="D41">
-        <v>55.91650073</v>
+        <v>55.61302042</v>
       </c>
       <c r="E41">
-        <v>37.51112581</v>
+        <v>37.67557888</v>
       </c>
       <c r="F41">
-        <v>55.92099556</v>
+        <v>55.62719296</v>
       </c>
       <c r="G41">
-        <v>12.9</v>
+        <v>22.32</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
       <c r="I41">
-        <v>2.9</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>680612</v>
+        <v>605354</v>
       </c>
       <c r="B42">
-        <v>695012</v>
+        <v>689150</v>
       </c>
       <c r="C42">
-        <v>37.51112581</v>
+        <v>37.67557888</v>
       </c>
       <c r="D42">
-        <v>55.92099556</v>
+        <v>55.62719296</v>
       </c>
       <c r="E42">
-        <v>37.53894704</v>
+        <v>37.53512799</v>
       </c>
       <c r="F42">
-        <v>55.91088019</v>
+        <v>55.64910433</v>
       </c>
       <c r="G42">
-        <v>13.71</v>
+        <v>23.65</v>
       </c>
       <c r="H42">
         <v>10</v>
       </c>
       <c r="I42">
-        <v>3.710000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>695012</v>
-      </c>
-      <c r="B43">
-        <v>605329</v>
-      </c>
-      <c r="C43">
-        <v>37.53894704</v>
-      </c>
-      <c r="D43">
-        <v>55.91088019</v>
-      </c>
-      <c r="E43">
-        <v>37.53864327</v>
-      </c>
-      <c r="F43">
-        <v>55.95594488</v>
-      </c>
-      <c r="G43">
-        <v>15.8</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-      <c r="I43">
-        <v>5.800000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>605329</v>
-      </c>
-      <c r="B44">
-        <v>608071</v>
-      </c>
-      <c r="C44">
-        <v>37.53864327</v>
-      </c>
-      <c r="D44">
-        <v>55.95594488</v>
-      </c>
-      <c r="E44">
-        <v>37.52475699</v>
-      </c>
-      <c r="F44">
-        <v>55.95964317</v>
-      </c>
-      <c r="G44">
-        <v>14.35</v>
-      </c>
-      <c r="H44">
-        <v>10</v>
-      </c>
-      <c r="I44">
-        <v>4.35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>608071</v>
-      </c>
-      <c r="B45">
-        <v>676360</v>
-      </c>
-      <c r="C45">
-        <v>37.52475699</v>
-      </c>
-      <c r="D45">
-        <v>55.95964317</v>
-      </c>
-      <c r="E45">
-        <v>37.52324601</v>
-      </c>
-      <c r="F45">
-        <v>55.94884297</v>
-      </c>
-      <c r="G45">
-        <v>14.43</v>
-      </c>
-      <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>676360</v>
-      </c>
-      <c r="B46">
-        <v>608057</v>
-      </c>
-      <c r="C46">
-        <v>37.52324601</v>
-      </c>
-      <c r="D46">
-        <v>55.94884297</v>
-      </c>
-      <c r="E46">
-        <v>37.49120889</v>
-      </c>
-      <c r="F46">
-        <v>55.94207203</v>
-      </c>
-      <c r="G46">
-        <v>16.69</v>
-      </c>
-      <c r="H46">
-        <v>10</v>
-      </c>
-      <c r="I46">
-        <v>6.690000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>608057</v>
-      </c>
-      <c r="B47">
-        <v>608062</v>
-      </c>
-      <c r="C47">
-        <v>37.49120889</v>
-      </c>
-      <c r="D47">
-        <v>55.94207203</v>
-      </c>
-      <c r="E47">
-        <v>37.49095925</v>
-      </c>
-      <c r="F47">
-        <v>55.94080193</v>
-      </c>
-      <c r="G47">
-        <v>10.47</v>
-      </c>
-      <c r="H47">
-        <v>10</v>
-      </c>
-      <c r="I47">
-        <v>0.4700000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48">
-        <v>608062</v>
-      </c>
-      <c r="B48">
-        <v>682257</v>
-      </c>
-      <c r="C48">
-        <v>37.49095925</v>
-      </c>
-      <c r="D48">
-        <v>55.94080193</v>
-      </c>
-      <c r="E48">
-        <v>37.49815939</v>
-      </c>
-      <c r="F48">
-        <v>55.94037273</v>
-      </c>
-      <c r="G48">
-        <v>12.62</v>
-      </c>
-      <c r="H48">
-        <v>10</v>
-      </c>
-      <c r="I48">
-        <v>2.620000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>682257</v>
-      </c>
-      <c r="B49">
-        <v>633088</v>
-      </c>
-      <c r="C49">
-        <v>37.49815939</v>
-      </c>
-      <c r="D49">
-        <v>55.94037273</v>
-      </c>
-      <c r="E49">
-        <v>37.52013646</v>
-      </c>
-      <c r="F49">
-        <v>55.93659309</v>
-      </c>
-      <c r="G49">
-        <v>12.66</v>
-      </c>
-      <c r="H49">
-        <v>10</v>
-      </c>
-      <c r="I49">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
-        <v>633088</v>
-      </c>
-      <c r="B50">
-        <v>608044</v>
-      </c>
-      <c r="C50">
-        <v>37.52013646</v>
-      </c>
-      <c r="D50">
-        <v>55.93659309</v>
-      </c>
-      <c r="E50">
-        <v>37.50852602</v>
-      </c>
-      <c r="F50">
-        <v>55.93772304</v>
-      </c>
-      <c r="G50">
-        <v>11.94</v>
-      </c>
-      <c r="H50">
-        <v>10</v>
-      </c>
-      <c r="I50">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>608044</v>
-      </c>
-      <c r="B51">
-        <v>636710</v>
-      </c>
-      <c r="C51">
-        <v>37.50852602</v>
-      </c>
-      <c r="D51">
-        <v>55.93772304</v>
-      </c>
-      <c r="E51">
-        <v>37.50528946</v>
-      </c>
-      <c r="F51">
-        <v>55.93740333</v>
-      </c>
-      <c r="G51">
-        <v>13.21</v>
-      </c>
-      <c r="H51">
-        <v>10</v>
-      </c>
-      <c r="I51">
-        <v>3.210000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
-        <v>636710</v>
-      </c>
-      <c r="B52">
-        <v>635518</v>
-      </c>
-      <c r="C52">
-        <v>37.50528946</v>
-      </c>
-      <c r="D52">
-        <v>55.93740333</v>
-      </c>
-      <c r="E52">
-        <v>37.52816873</v>
-      </c>
-      <c r="F52">
-        <v>55.98422175</v>
-      </c>
-      <c r="G52">
-        <v>21.85</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52">
-        <v>11.85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
-        <v>635518</v>
-      </c>
-      <c r="B53">
-        <v>608047</v>
-      </c>
-      <c r="C53">
-        <v>37.52816873</v>
-      </c>
-      <c r="D53">
-        <v>55.98422175</v>
-      </c>
-      <c r="E53">
-        <v>37.51151064</v>
-      </c>
-      <c r="F53">
-        <v>55.97220158</v>
-      </c>
-      <c r="G53">
-        <v>15.62</v>
-      </c>
-      <c r="H53">
-        <v>10</v>
-      </c>
-      <c r="I53">
-        <v>5.620000000000001</v>
+        <v>13.65</v>
       </c>
     </row>
   </sheetData>
